--- a/Base/Backlog_33.xlsx
+++ b/Base/Backlog_33.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22772C-CEF4-441E-93E8-D2B7C1DD42BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82027F5D-B954-40AE-96C1-2C2F0A599732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
     <sheet name="SPN" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$K$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -174,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,15 +261,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,6 +277,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,7 +623,7 @@
     <col min="12" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -645,810 +658,785 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="10">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F2" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="C2" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="16">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F2" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G2" s="16">
         <v>343419</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="18">
         <v>45870</v>
       </c>
-      <c r="I2" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="16">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F3" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G3" s="16">
+        <v>343497</v>
+      </c>
+      <c r="H3" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I3" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="16">
+        <v>33</v>
+      </c>
+      <c r="E4" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F4" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G4" s="16">
+        <v>340432</v>
+      </c>
+      <c r="H4" s="18">
+        <v>45839</v>
+      </c>
+      <c r="I4" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="10">
-        <v>33</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F3" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G3" s="10">
-        <v>343497</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="K4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="16">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G5" s="16">
+        <v>343928</v>
+      </c>
+      <c r="H5" s="18">
         <v>45870</v>
       </c>
-      <c r="I3" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I5" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="16">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G6" s="16">
+        <v>344118</v>
+      </c>
+      <c r="H6" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I6" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="10">
-        <v>33</v>
-      </c>
-      <c r="E4" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G4" s="10">
-        <v>340432</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="K6" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="16">
+        <v>33</v>
+      </c>
+      <c r="E7" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G7" s="16">
+        <v>343917</v>
+      </c>
+      <c r="H7" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I7" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="16">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G8" s="16">
+        <v>343315</v>
+      </c>
+      <c r="H8" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I8" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="16">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G9" s="16">
+        <v>343649</v>
+      </c>
+      <c r="H9" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I9" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="16">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G10" s="16">
+        <v>342874</v>
+      </c>
+      <c r="H10" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I10" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="16">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G11" s="16">
+        <v>341994</v>
+      </c>
+      <c r="H11" s="18">
         <v>45839</v>
       </c>
-      <c r="I4" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="I11" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="10">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G5" s="10">
-        <v>343928</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="K11" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="16">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F12" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G12" s="16">
+        <v>343933</v>
+      </c>
+      <c r="H12" s="18">
         <v>45870</v>
       </c>
-      <c r="I5" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I12" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="16">
+        <v>33</v>
+      </c>
+      <c r="E13" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F13" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G13" s="16">
+        <v>339644</v>
+      </c>
+      <c r="H13" s="18">
+        <v>45839</v>
+      </c>
+      <c r="I13" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="16">
+        <v>33</v>
+      </c>
+      <c r="E14" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F14" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G14" s="16">
+        <v>342135</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45839</v>
+      </c>
+      <c r="I14" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="10">
-        <v>33</v>
-      </c>
-      <c r="E6" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F6" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G6" s="10">
-        <v>344118</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="K14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="16">
+        <v>33</v>
+      </c>
+      <c r="E15" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F15" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G15" s="16">
+        <v>341731</v>
+      </c>
+      <c r="H15" s="18">
+        <v>45839</v>
+      </c>
+      <c r="I15" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="16">
+        <v>33</v>
+      </c>
+      <c r="E16" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F16" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G16" s="16">
+        <v>342914</v>
+      </c>
+      <c r="H16" s="18">
         <v>45870</v>
       </c>
-      <c r="I6" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I16" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="16">
+        <v>33</v>
+      </c>
+      <c r="E17" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F17" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G17" s="16">
+        <v>342958</v>
+      </c>
+      <c r="H17" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I17" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="16">
+        <v>33</v>
+      </c>
+      <c r="E18" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F18" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G18" s="16">
+        <v>342831</v>
+      </c>
+      <c r="H18" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="16">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F19" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G19" s="16">
+        <v>340589</v>
+      </c>
+      <c r="H19" s="18">
+        <v>45839</v>
+      </c>
+      <c r="I19" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="16">
+        <v>33</v>
+      </c>
+      <c r="E20" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G20" s="16">
+        <v>342670</v>
+      </c>
+      <c r="H20" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I20" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="16">
+        <v>33</v>
+      </c>
+      <c r="E21" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F21" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G21" s="16">
+        <v>343986</v>
+      </c>
+      <c r="H21" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I21" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="16">
+        <v>33</v>
+      </c>
+      <c r="E22" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G22" s="16">
+        <v>344125</v>
+      </c>
+      <c r="H22" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I22" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16">
+        <v>2025</v>
+      </c>
+      <c r="D23" s="16">
+        <v>33</v>
+      </c>
+      <c r="E23" s="17">
+        <v>45887</v>
+      </c>
+      <c r="F23" s="17">
+        <v>45891</v>
+      </c>
+      <c r="G23" s="16">
+        <v>344168</v>
+      </c>
+      <c r="H23" s="18">
+        <v>45870</v>
+      </c>
+      <c r="I23" s="17">
+        <v>45887</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="10">
-        <v>33</v>
-      </c>
-      <c r="E7" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F7" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G7" s="10">
-        <v>343917</v>
-      </c>
-      <c r="H7" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I7" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="10">
-        <v>33</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G8" s="10">
-        <v>343315</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I8" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="10">
-        <v>33</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G9" s="10">
-        <v>343649</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I9" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="10">
-        <v>33</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F10" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G10" s="10">
-        <v>342874</v>
-      </c>
-      <c r="H10" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I10" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="10">
-        <v>33</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G11" s="10">
-        <v>341994</v>
-      </c>
-      <c r="H11" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I11" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="10">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G12" s="10">
-        <v>343933</v>
-      </c>
-      <c r="H12" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I12" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="10">
-        <v>33</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F13" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G13" s="10">
-        <v>339644</v>
-      </c>
-      <c r="H13" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I13" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="10">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G14" s="10">
-        <v>342135</v>
-      </c>
-      <c r="H14" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I14" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="10">
-        <v>33</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F15" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G15" s="10">
-        <v>341731</v>
-      </c>
-      <c r="H15" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I15" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="10">
-        <v>33</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F16" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G16" s="10">
-        <v>342914</v>
-      </c>
-      <c r="H16" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I16" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D17" s="10">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F17" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G17" s="10">
-        <v>342958</v>
-      </c>
-      <c r="H17" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I17" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="10">
-        <v>33</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F18" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G18" s="10">
-        <v>342831</v>
-      </c>
-      <c r="H18" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I18" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="10">
-        <v>33</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F19" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G19" s="10">
-        <v>340589</v>
-      </c>
-      <c r="H19" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I19" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D20" s="10">
-        <v>33</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F20" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G20" s="10">
-        <v>342670</v>
-      </c>
-      <c r="H20" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I20" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D21" s="10">
-        <v>33</v>
-      </c>
-      <c r="E21" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F21" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G21" s="10">
-        <v>342006</v>
-      </c>
-      <c r="H21" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I21" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="10">
-        <v>33</v>
-      </c>
-      <c r="E22" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G22" s="10">
-        <v>343986</v>
-      </c>
-      <c r="H22" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I22" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D23" s="10">
-        <v>33</v>
-      </c>
-      <c r="E23" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F23" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G23" s="10">
-        <v>344125</v>
-      </c>
-      <c r="H23" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I23" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="10">
-        <v>33</v>
-      </c>
-      <c r="E24" s="11">
-        <v>45887</v>
-      </c>
-      <c r="F24" s="11">
-        <v>45891</v>
-      </c>
-      <c r="G24" s="10">
-        <v>344168</v>
-      </c>
-      <c r="H24" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I24" s="11">
-        <v>45887</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
@@ -1515,12 +1503,13 @@
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="5"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
       <c r="H35" s="2"/>
@@ -1537,7 +1526,7 @@
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="5"/>
@@ -1548,21 +1537,20 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="5"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="H39" s="2"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="6"/>
     </row>
@@ -1582,7 +1570,6 @@
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
@@ -1606,7 +1593,6 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="3"/>
       <c r="F47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6"/>
@@ -1616,53 +1602,48 @@
       <c r="I48" s="5"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K20" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:K23" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1673,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,216 +1671,216 @@
     <col min="9" max="9" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="14"/>
+    <col min="12" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="15">
-        <v>33</v>
-      </c>
-      <c r="E2" s="18">
-        <v>45887</v>
-      </c>
-      <c r="F2" s="18">
-        <v>45891</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C2" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="12">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15">
+        <v>45887</v>
+      </c>
+      <c r="F2" s="15">
+        <v>45891</v>
+      </c>
+      <c r="G2" s="12">
         <v>342579</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>45870</v>
       </c>
-      <c r="I2" s="18">
-        <v>45887</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="15">
+        <v>45887</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="12">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45887</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45891</v>
+      </c>
+      <c r="G3" s="12">
+        <v>343563</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45870</v>
+      </c>
+      <c r="I3" s="15">
+        <v>45887</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="12">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45887</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45891</v>
+      </c>
+      <c r="G4" s="12">
+        <v>343881</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45870</v>
+      </c>
+      <c r="I4" s="15">
+        <v>45887</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="15">
-        <v>33</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45887</v>
-      </c>
-      <c r="F3" s="18">
-        <v>45891</v>
-      </c>
-      <c r="G3" s="15">
-        <v>343563</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="12">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45887</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45891</v>
+      </c>
+      <c r="G5" s="12">
+        <v>343975</v>
+      </c>
+      <c r="H5" s="13">
         <v>45870</v>
       </c>
-      <c r="I3" s="18">
-        <v>45887</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I5" s="15">
+        <v>45887</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="15">
-        <v>33</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45887</v>
-      </c>
-      <c r="F4" s="18">
-        <v>45891</v>
-      </c>
-      <c r="G4" s="15">
-        <v>343881</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="12">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45887</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45891</v>
+      </c>
+      <c r="G6" s="12">
+        <v>343106</v>
+      </c>
+      <c r="H6" s="13">
         <v>45870</v>
       </c>
-      <c r="I4" s="18">
-        <v>45887</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="15">
-        <v>33</v>
-      </c>
-      <c r="E5" s="18">
-        <v>45887</v>
-      </c>
-      <c r="F5" s="18">
-        <v>45891</v>
-      </c>
-      <c r="G5" s="15">
-        <v>343975</v>
-      </c>
-      <c r="H5" s="16">
-        <v>45870</v>
-      </c>
-      <c r="I5" s="18">
-        <v>45887</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="15">
-        <v>33</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45887</v>
-      </c>
-      <c r="F6" s="18">
-        <v>45891</v>
-      </c>
-      <c r="G6" s="15">
-        <v>343106</v>
-      </c>
-      <c r="H6" s="16">
-        <v>45870</v>
-      </c>
-      <c r="I6" s="18">
-        <v>45887</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="15">
+        <v>45887</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
